--- a/Main/SASdata/Thomas/couple_formue.xlsx
+++ b/Main/SASdata/Thomas/couple_formue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\Thomas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99316428-D04E-4400-8768-97FA12C5035A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3303D58-991D-4FA9-B0E9-8A530AA57083}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:AC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,12 +626,12 @@
       </c>
       <c r="S2" s="3">
         <f>U2</f>
-        <v>1.6968588000000033E-5</v>
+        <v>5.5688353365310929E-5</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3">
         <f>INDEX($AA$11:$AB$19,MATCH($A2,$AA$11:$AA$19,0),2)*V2*W2*X2*Y2</f>
-        <v>1.6968588000000033E-5</v>
+        <v>5.5688353365310929E-5</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" ref="V2:V65" si="0">IF(B2=1,$AB$3,(1-$AB$3))</f>
@@ -716,12 +716,12 @@
       </c>
       <c r="S3" s="3">
         <f t="shared" ref="S3:S66" si="4">U3</f>
-        <v>4.7860120000000092E-6</v>
+        <v>1.5706971462010775E-5</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3">
         <f t="shared" ref="U3:U66" si="5">INDEX($AA$11:$AB$19,MATCH($A3,$AA$11:$AA$19,0),2)*V3*W3*X3*Y3</f>
-        <v>4.7860120000000092E-6</v>
+        <v>1.5706971462010775E-5</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" si="0"/>
@@ -806,12 +806,12 @@
       </c>
       <c r="S4" s="3">
         <f t="shared" si="4"/>
-        <v>5.8905241200000059E-4</v>
+        <v>1.9331814096815059E-3</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3">
         <f t="shared" si="5"/>
-        <v>5.8905241200000059E-4</v>
+        <v>1.9331814096815059E-3</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" si="0"/>
@@ -893,12 +893,12 @@
       </c>
       <c r="S5" s="3">
         <f t="shared" si="4"/>
-        <v>1.6614298800000015E-4</v>
+        <v>5.4525629503837344E-4</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3">
         <f t="shared" si="5"/>
-        <v>1.6614298800000015E-4</v>
+        <v>5.4525629503837344E-4</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" si="0"/>
@@ -918,11 +918,11 @@
       </c>
       <c r="AB5">
         <f>SUMIFS($U$2:$U$145,$C$2:$C$145,1)</f>
-        <v>0.24199999999999999</v>
+        <v>0.24199999999999991</v>
       </c>
       <c r="AC5">
         <f>SUMIFS($U$2:$U$145,$E$2:$E$145,1)</f>
-        <v>0.21999999999999995</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -982,12 +982,12 @@
       </c>
       <c r="S6" s="3">
         <f t="shared" si="4"/>
-        <v>5.4174120000000088E-6</v>
+        <v>1.7779131285495042E-5</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3">
         <f t="shared" si="5"/>
-        <v>5.4174120000000088E-6</v>
+        <v>1.7779131285495042E-5</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" si="0"/>
@@ -1007,11 +1007,11 @@
       </c>
       <c r="AB6">
         <f>SUMIFS($U$2:$U$145,$B$2:$B$145,1)</f>
-        <v>0.95900000000000041</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="AC6">
         <f>SUMIFS($U$2:$U$145,$D$2:$D$145,1)</f>
-        <v>0.9720000000000002</v>
+        <v>0.97199999999999975</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="S7" s="3">
         <f t="shared" si="4"/>
-        <v>1.5279880000000024E-6</v>
+        <v>5.014626772831935E-6</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3">
         <f t="shared" si="5"/>
-        <v>1.5279880000000024E-6</v>
+        <v>5.014626772831935E-6</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" si="0"/>
@@ -1160,12 +1160,12 @@
       </c>
       <c r="S8" s="3">
         <f t="shared" si="4"/>
-        <v>1.8806158800000014E-4</v>
+        <v>6.171898431964702E-4</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3">
         <f t="shared" si="5"/>
-        <v>1.8806158800000014E-4</v>
+        <v>6.171898431964702E-4</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" si="0"/>
@@ -1184,7 +1184,7 @@
         <v>0.78</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" ref="AB8:AC8" si="7">AB3-AB6</f>
+        <f t="shared" ref="AB8" si="7">AB3-AB6</f>
         <v>0</v>
       </c>
       <c r="AC8" s="1">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="S9" s="3">
         <f t="shared" si="4"/>
-        <v>5.304301200000004E-5</v>
+        <v>1.7407918654259417E-4</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3">
         <f t="shared" si="5"/>
-        <v>5.304301200000004E-5</v>
+        <v>1.7407918654259417E-4</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" si="0"/>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="S10" s="3">
         <f t="shared" si="4"/>
-        <v>3.9689941200000034E-4</v>
+        <v>1.3025641677398322E-3</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3">
         <f t="shared" si="5"/>
-        <v>3.9689941200000034E-4</v>
+        <v>1.3025641677398322E-3</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="0"/>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="S11" s="3">
         <f t="shared" si="4"/>
-        <v>1.1194598800000009E-4</v>
+        <v>3.6738989346508087E-4</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3">
         <f t="shared" si="5"/>
-        <v>1.1194598800000009E-4</v>
+        <v>3.6738989346508087E-4</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="0"/>
@@ -1444,11 +1444,11 @@
         <v>-4</v>
       </c>
       <c r="AB11">
-        <v>2.5000000000000001E-2</v>
+        <v>8.2046239447429004E-2</v>
       </c>
       <c r="AC11">
         <f>SUMIFS($U$2:$U$145,$A$2:$A$145,AA11)</f>
-        <v>2.5000000000000005E-2</v>
+        <v>8.2046239447429031E-2</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="S12" s="3">
         <f t="shared" si="4"/>
-        <v>1.3778079588000001E-2</v>
+        <v>4.5217584680111285E-2</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3">
         <f t="shared" si="5"/>
-        <v>1.3778079588000001E-2</v>
+        <v>4.5217584680111285E-2</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" si="0"/>
@@ -1535,11 +1535,11 @@
         <v>-3</v>
       </c>
       <c r="AB12">
-        <v>2.5000000000000001E-2</v>
+        <v>0.14201602072141212</v>
       </c>
       <c r="AC12">
         <f t="shared" ref="AC12:AC19" si="8">SUMIFS($U$2:$U$145,$A$2:$A$145,AA12)</f>
-        <v>2.5000000000000005E-2</v>
+        <v>0.14201602072141215</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="S13" s="3">
         <f t="shared" si="4"/>
-        <v>3.8861250120000002E-3</v>
+        <v>1.2753677730287797E-2</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3">
         <f t="shared" si="5"/>
-        <v>3.8861250120000002E-3</v>
+        <v>1.2753677730287797E-2</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" si="0"/>
@@ -1626,11 +1626,11 @@
         <v>-2</v>
       </c>
       <c r="AB13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.19572620874904068</v>
       </c>
       <c r="AC13">
         <f t="shared" si="8"/>
-        <v>2.5000000000000005E-2</v>
+        <v>0.19572620874904073</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1690,12 +1690,12 @@
       </c>
       <c r="S14" s="3">
         <f t="shared" si="4"/>
-        <v>1.2671458800000011E-4</v>
+        <v>4.1585821714121296E-4</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3">
         <f t="shared" si="5"/>
-        <v>1.2671458800000011E-4</v>
+        <v>4.1585821714121296E-4</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="0"/>
@@ -1717,11 +1717,11 @@
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.05</v>
+        <v>0.22388238679969302</v>
       </c>
       <c r="AC14">
         <f t="shared" si="8"/>
-        <v>5.000000000000001E-2</v>
+        <v>0.223882386799693</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="S15" s="3">
         <f t="shared" si="4"/>
-        <v>3.5740012000000033E-5</v>
+        <v>1.1729334329623954E-4</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3">
         <f t="shared" si="5"/>
-        <v>3.5740012000000033E-5</v>
+        <v>1.1729334329623954E-4</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" si="0"/>
@@ -1808,11 +1808,11 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.125</v>
+        <v>0.1813603223330775</v>
       </c>
       <c r="AC15">
         <f t="shared" si="8"/>
-        <v>0.125</v>
+        <v>0.1813603223330775</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="S16" s="3">
         <f t="shared" si="4"/>
-        <v>4.398806412E-3</v>
+        <v>1.4436220966473522E-2</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3">
         <f t="shared" si="5"/>
-        <v>4.398806412E-3</v>
+        <v>1.4436220966473522E-2</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="0"/>
@@ -1899,11 +1899,11 @@
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>0.15</v>
+        <v>9.610034535686876E-2</v>
       </c>
       <c r="AC16">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>9.610034535686876E-2</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="S17" s="3">
         <f t="shared" si="4"/>
-        <v>1.2406889879999999E-3</v>
+        <v>4.0717546315694551E-3</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3">
         <f t="shared" si="5"/>
-        <v>1.2406889879999999E-3</v>
+        <v>4.0717546315694551E-3</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="0"/>
@@ -1990,11 +1990,11 @@
         <v>2</v>
       </c>
       <c r="AB17">
-        <v>0.22500000000000001</v>
+        <v>4.4392747505755947E-2</v>
       </c>
       <c r="AC17">
         <f t="shared" si="8"/>
-        <v>0.22499999999999998</v>
+        <v>4.4392747505755947E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="S18" s="3">
         <f t="shared" si="4"/>
-        <v>1.6968588000000033E-5</v>
+        <v>9.6392453800844363E-5</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3">
         <f t="shared" si="5"/>
-        <v>1.6968588000000033E-5</v>
+        <v>9.6392453800844363E-5</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" si="0"/>
@@ -2081,11 +2081,11 @@
         <v>3</v>
       </c>
       <c r="AB18">
-        <v>0.22500000000000001</v>
+        <v>2.4127014581734458E-2</v>
       </c>
       <c r="AC18">
         <f t="shared" si="8"/>
-        <v>0.22499999999999998</v>
+        <v>2.4127014581734454E-2</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="S19" s="3">
         <f t="shared" si="4"/>
-        <v>4.7860120000000092E-6</v>
+        <v>2.7187615174597127E-5</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3">
         <f t="shared" si="5"/>
-        <v>4.7860120000000092E-6</v>
+        <v>2.7187615174597127E-5</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="0"/>
@@ -2172,11 +2172,11 @@
         <v>4</v>
       </c>
       <c r="AB19">
-        <v>0.15</v>
+        <v>1.0348714504988489E-2</v>
       </c>
       <c r="AC19">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>1.034871450498849E-2</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="S20" s="3">
         <f t="shared" si="4"/>
-        <v>5.8905241200000059E-4</v>
+        <v>3.346195181943594E-3</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3">
         <f t="shared" si="5"/>
-        <v>5.8905241200000059E-4</v>
+        <v>3.346195181943594E-3</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" si="0"/>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="S21" s="3">
         <f t="shared" si="4"/>
-        <v>1.6614298800000015E-4</v>
+        <v>9.4379864106101377E-4</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3">
         <f t="shared" si="5"/>
-        <v>1.6614298800000015E-4</v>
+        <v>9.4379864106101377E-4</v>
       </c>
       <c r="V21" s="3">
         <f t="shared" si="0"/>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="S22" s="3">
         <f t="shared" si="4"/>
-        <v>5.4174120000000088E-6</v>
+        <v>3.0774371793937123E-5</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3">
         <f t="shared" si="5"/>
-        <v>5.4174120000000088E-6</v>
+        <v>3.0774371793937123E-5</v>
       </c>
       <c r="V22" s="3">
         <f t="shared" si="0"/>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="S23" s="3">
         <f t="shared" si="4"/>
-        <v>1.5279880000000024E-6</v>
+        <v>8.6799510188027771E-6</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3">
         <f t="shared" si="5"/>
-        <v>1.5279880000000024E-6</v>
+        <v>8.6799510188027771E-6</v>
       </c>
       <c r="V23" s="3">
         <f t="shared" si="0"/>
@@ -2569,12 +2569,12 @@
       </c>
       <c r="S24" s="3">
         <f t="shared" si="4"/>
-        <v>1.8806158800000014E-4</v>
+        <v>1.0683103351323876E-3</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3">
         <f t="shared" si="5"/>
-        <v>1.8806158800000014E-4</v>
+        <v>1.0683103351323876E-3</v>
       </c>
       <c r="V24" s="3">
         <f t="shared" si="0"/>
@@ -2650,12 +2650,12 @@
       </c>
       <c r="S25" s="3">
         <f t="shared" si="4"/>
-        <v>5.304301200000004E-5</v>
+        <v>3.0131829965272474E-4</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3">
         <f t="shared" si="5"/>
-        <v>5.304301200000004E-5</v>
+        <v>3.0131829965272474E-4</v>
       </c>
       <c r="V25" s="3">
         <f t="shared" si="0"/>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="S26" s="3">
         <f t="shared" si="4"/>
-        <v>3.9689941200000034E-4</v>
+        <v>2.254643004756334E-3</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3">
         <f t="shared" si="5"/>
-        <v>3.9689941200000034E-4</v>
+        <v>2.254643004756334E-3</v>
       </c>
       <c r="V26" s="3">
         <f t="shared" si="0"/>
@@ -2812,12 +2812,12 @@
       </c>
       <c r="S27" s="3">
         <f t="shared" si="4"/>
-        <v>1.1194598800000009E-4</v>
+        <v>6.3592495005947874E-4</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3">
         <f t="shared" si="5"/>
-        <v>1.1194598800000009E-4</v>
+        <v>6.3592495005947874E-4</v>
       </c>
       <c r="V27" s="3">
         <f t="shared" si="0"/>
@@ -2893,12 +2893,12 @@
       </c>
       <c r="S28" s="3">
         <f t="shared" si="4"/>
-        <v>1.3778079588000001E-2</v>
+        <v>7.8268321450826947E-2</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3">
         <f t="shared" si="5"/>
-        <v>1.3778079588000001E-2</v>
+        <v>7.8268321450826947E-2</v>
       </c>
       <c r="V28" s="3">
         <f t="shared" si="0"/>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="S29" s="3">
         <f t="shared" si="4"/>
-        <v>3.8861250120000002E-3</v>
+        <v>2.2075680409207599E-2</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3">
         <f t="shared" si="5"/>
-        <v>3.8861250120000002E-3</v>
+        <v>2.2075680409207599E-2</v>
       </c>
       <c r="V29" s="3">
         <f t="shared" si="0"/>
@@ -3055,12 +3055,12 @@
       </c>
       <c r="S30" s="3">
         <f t="shared" si="4"/>
-        <v>1.2671458800000011E-4</v>
+        <v>7.1982006220452867E-4</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3">
         <f t="shared" si="5"/>
-        <v>1.2671458800000011E-4</v>
+        <v>7.1982006220452867E-4</v>
       </c>
       <c r="V30" s="3">
         <f t="shared" si="0"/>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="S31" s="3">
         <f t="shared" si="4"/>
-        <v>3.5740012000000033E-5</v>
+        <v>2.030261713910209E-4</v>
       </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3">
         <f t="shared" si="5"/>
-        <v>3.5740012000000033E-5</v>
+        <v>2.030261713910209E-4</v>
       </c>
       <c r="V31" s="3">
         <f t="shared" si="0"/>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="S32" s="3">
         <f t="shared" si="4"/>
-        <v>4.398806412E-3</v>
+        <v>2.4988039302242901E-2</v>
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3">
         <f t="shared" si="5"/>
-        <v>4.398806412E-3</v>
+        <v>2.4988039302242901E-2</v>
       </c>
       <c r="V32" s="3">
         <f t="shared" si="0"/>
@@ -3298,12 +3298,12 @@
       </c>
       <c r="S33" s="3">
         <f t="shared" si="4"/>
-        <v>1.2406889879999999E-3</v>
+        <v>7.0479085211454327E-3</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3">
         <f t="shared" si="5"/>
-        <v>1.2406889879999999E-3</v>
+        <v>7.0479085211454327E-3</v>
       </c>
       <c r="V33" s="3">
         <f t="shared" si="0"/>
@@ -3379,12 +3379,12 @@
       </c>
       <c r="S34" s="3">
         <f t="shared" si="4"/>
-        <v>1.6968588000000033E-5</v>
+        <v>1.3284789588257891E-4</v>
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3">
         <f t="shared" si="5"/>
-        <v>1.6968588000000033E-5</v>
+        <v>1.3284789588257891E-4</v>
       </c>
       <c r="V34" s="3">
         <f t="shared" si="0"/>
@@ -3460,12 +3460,12 @@
       </c>
       <c r="S35" s="3">
         <f t="shared" si="4"/>
-        <v>4.7860120000000092E-6</v>
+        <v>3.7469919351496613E-5</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3">
         <f t="shared" si="5"/>
-        <v>4.7860120000000092E-6</v>
+        <v>3.7469919351496613E-5</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="0"/>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="S36" s="3">
         <f t="shared" si="4"/>
-        <v>5.8905241200000059E-4</v>
+        <v>4.6117198142095212E-3</v>
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3">
         <f t="shared" si="5"/>
-        <v>5.8905241200000059E-4</v>
+        <v>4.6117198142095212E-3</v>
       </c>
       <c r="V36" s="3">
         <f t="shared" si="0"/>
@@ -3622,12 +3622,12 @@
       </c>
       <c r="S37" s="3">
         <f t="shared" si="4"/>
-        <v>1.6614298800000015E-4</v>
+        <v>1.3007414860590955E-3</v>
       </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3">
         <f t="shared" si="5"/>
-        <v>1.6614298800000015E-4</v>
+        <v>1.3007414860590955E-3</v>
       </c>
       <c r="V37" s="3">
         <f t="shared" si="0"/>
@@ -3703,12 +3703,12 @@
       </c>
       <c r="S38" s="3">
         <f t="shared" si="4"/>
-        <v>5.4174120000000088E-6</v>
+        <v>4.2413180479662392E-5</v>
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3">
         <f t="shared" si="5"/>
-        <v>5.4174120000000088E-6</v>
+        <v>4.2413180479662392E-5</v>
       </c>
       <c r="V38" s="3">
         <f t="shared" si="0"/>
@@ -3784,12 +3784,12 @@
       </c>
       <c r="S39" s="3">
         <f t="shared" si="4"/>
-        <v>1.5279880000000024E-6</v>
+        <v>1.1962691930161188E-5</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3">
         <f t="shared" si="5"/>
-        <v>1.5279880000000024E-6</v>
+        <v>1.1962691930161188E-5</v>
       </c>
       <c r="V39" s="3">
         <f t="shared" si="0"/>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="S40" s="3">
         <f t="shared" si="4"/>
-        <v>1.8806158800000014E-4</v>
+        <v>1.4723432652225647E-3</v>
       </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3">
         <f t="shared" si="5"/>
-        <v>1.8806158800000014E-4</v>
+        <v>1.4723432652225647E-3</v>
       </c>
       <c r="V40" s="3">
         <f t="shared" si="0"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="S41" s="3">
         <f t="shared" si="4"/>
-        <v>5.304301200000004E-5</v>
+        <v>4.1527630557559511E-4</v>
       </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3">
         <f t="shared" si="5"/>
-        <v>5.304301200000004E-5</v>
+        <v>4.1527630557559511E-4</v>
       </c>
       <c r="V41" s="3">
         <f t="shared" si="0"/>
@@ -4027,12 +4027,12 @@
       </c>
       <c r="S42" s="3">
         <f t="shared" si="4"/>
-        <v>3.9689941200000034E-4</v>
+        <v>3.1073446866193431E-3</v>
       </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3">
         <f t="shared" si="5"/>
-        <v>3.9689941200000034E-4</v>
+        <v>3.1073446866193431E-3</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="0"/>
@@ -4108,12 +4108,12 @@
       </c>
       <c r="S43" s="3">
         <f t="shared" si="4"/>
-        <v>1.1194598800000009E-4</v>
+        <v>8.7643055263622496E-4</v>
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3">
         <f t="shared" si="5"/>
-        <v>1.1194598800000009E-4</v>
+        <v>8.7643055263622496E-4</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="0"/>
@@ -4189,12 +4189,12 @@
       </c>
       <c r="S44" s="3">
         <f t="shared" si="4"/>
-        <v>1.3778079588000001E-2</v>
+        <v>0.10786925126407139</v>
       </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3">
         <f t="shared" si="5"/>
-        <v>1.3778079588000001E-2</v>
+        <v>0.10786925126407139</v>
       </c>
       <c r="V44" s="3">
         <f t="shared" si="0"/>
@@ -4270,12 +4270,12 @@
       </c>
       <c r="S45" s="3">
         <f t="shared" si="4"/>
-        <v>3.8861250120000002E-3</v>
+        <v>3.0424660612943209E-2</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3">
         <f t="shared" si="5"/>
-        <v>3.8861250120000002E-3</v>
+        <v>3.0424660612943209E-2</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" si="0"/>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="S46" s="3">
         <f t="shared" si="4"/>
-        <v>1.2671458800000011E-4</v>
+        <v>9.9205463609746813E-4</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3">
         <f t="shared" si="5"/>
-        <v>1.2671458800000011E-4</v>
+        <v>9.9205463609746813E-4</v>
       </c>
       <c r="V46" s="3">
         <f t="shared" si="0"/>
@@ -4432,12 +4432,12 @@
       </c>
       <c r="S47" s="3">
         <f t="shared" si="4"/>
-        <v>3.5740012000000033E-5</v>
+        <v>2.7981028197620895E-4</v>
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3">
         <f t="shared" si="5"/>
-        <v>3.5740012000000033E-5</v>
+        <v>2.7981028197620895E-4</v>
       </c>
       <c r="V47" s="3">
         <f t="shared" si="0"/>
@@ -4513,12 +4513,12 @@
       </c>
       <c r="S48" s="3">
         <f t="shared" si="4"/>
-        <v>4.398806412E-3</v>
+        <v>3.443846808166922E-2</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3">
         <f t="shared" si="5"/>
-        <v>4.398806412E-3</v>
+        <v>3.443846808166922E-2</v>
       </c>
       <c r="V48" s="3">
         <f t="shared" si="0"/>
@@ -4594,12 +4594,12 @@
       </c>
       <c r="S49" s="3">
         <f t="shared" si="4"/>
-        <v>1.2406889879999999E-3</v>
+        <v>9.7134140743169589E-3</v>
       </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3">
         <f t="shared" si="5"/>
-        <v>1.2406889879999999E-3</v>
+        <v>9.7134140743169589E-3</v>
       </c>
       <c r="V49" s="3">
         <f t="shared" si="0"/>
@@ -4675,12 +4675,12 @@
       </c>
       <c r="S50" s="3">
         <f t="shared" si="4"/>
-        <v>3.3937176000000066E-5</v>
+        <v>1.5195871928242545E-4</v>
       </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3">
         <f t="shared" si="5"/>
-        <v>3.3937176000000066E-5</v>
+        <v>1.5195871928242545E-4</v>
       </c>
       <c r="V50" s="3">
         <f t="shared" si="0"/>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="S51" s="3">
         <f t="shared" si="4"/>
-        <v>9.5720240000000185E-6</v>
+        <v>4.2860151592478973E-5</v>
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3">
         <f t="shared" si="5"/>
-        <v>9.5720240000000185E-6</v>
+        <v>4.2860151592478973E-5</v>
       </c>
       <c r="V51" s="3">
         <f t="shared" si="0"/>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="S52" s="3">
         <f t="shared" si="4"/>
-        <v>1.1781048240000012E-3</v>
+        <v>5.2751383979470498E-3</v>
       </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3">
         <f t="shared" si="5"/>
-        <v>1.1781048240000012E-3</v>
+        <v>5.2751383979470498E-3</v>
       </c>
       <c r="V52" s="3">
         <f t="shared" si="0"/>
@@ -4918,12 +4918,12 @@
       </c>
       <c r="S53" s="3">
         <f t="shared" si="4"/>
-        <v>3.3228597600000031E-4</v>
+        <v>1.4878595481389114E-3</v>
       </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3">
         <f t="shared" si="5"/>
-        <v>3.3228597600000031E-4</v>
+        <v>1.4878595481389114E-3</v>
       </c>
       <c r="V53" s="3">
         <f t="shared" si="0"/>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="S54" s="3">
         <f t="shared" si="4"/>
-        <v>1.0834824000000018E-5</v>
+        <v>4.8514525153492026E-5</v>
       </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3">
         <f t="shared" si="5"/>
-        <v>1.0834824000000018E-5</v>
+        <v>4.8514525153492026E-5</v>
       </c>
       <c r="V54" s="3">
         <f t="shared" si="0"/>
@@ -5080,12 +5080,12 @@
       </c>
       <c r="S55" s="3">
         <f t="shared" si="4"/>
-        <v>3.0559760000000049E-6</v>
+        <v>1.3683584017651596E-5</v>
       </c>
       <c r="T55" s="3"/>
       <c r="U55" s="3">
         <f t="shared" si="5"/>
-        <v>3.0559760000000049E-6</v>
+        <v>1.3683584017651596E-5</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" si="0"/>
@@ -5161,12 +5161,12 @@
       </c>
       <c r="S56" s="3">
         <f t="shared" si="4"/>
-        <v>3.7612317600000029E-4</v>
+        <v>1.6841470874712214E-3</v>
       </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3">
         <f t="shared" si="5"/>
-        <v>3.7612317600000029E-4</v>
+        <v>1.6841470874712214E-3</v>
       </c>
       <c r="V56" s="3">
         <f t="shared" si="0"/>
@@ -5242,12 +5242,12 @@
       </c>
       <c r="S57" s="3">
         <f t="shared" si="4"/>
-        <v>1.0608602400000008E-4</v>
+        <v>4.7501584518419066E-4</v>
       </c>
       <c r="T57" s="3"/>
       <c r="U57" s="3">
         <f t="shared" si="5"/>
-        <v>1.0608602400000008E-4</v>
+        <v>4.7501584518419066E-4</v>
       </c>
       <c r="V57" s="3">
         <f t="shared" si="0"/>
@@ -5323,12 +5323,12 @@
       </c>
       <c r="S58" s="3">
         <f t="shared" si="4"/>
-        <v>7.9379882400000068E-4</v>
+        <v>3.5543515071181919E-3</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3">
         <f t="shared" si="5"/>
-        <v>7.9379882400000068E-4</v>
+        <v>3.5543515071181919E-3</v>
       </c>
       <c r="V58" s="3">
         <f t="shared" si="0"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="S59" s="3">
         <f t="shared" si="4"/>
-        <v>2.2389197600000018E-4</v>
+        <v>1.0025093994435925E-3</v>
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3">
         <f t="shared" si="5"/>
-        <v>2.2389197600000018E-4</v>
+        <v>1.0025093994435925E-3</v>
       </c>
       <c r="V59" s="3">
         <f t="shared" si="0"/>
@@ -5485,12 +5485,12 @@
       </c>
       <c r="S60" s="3">
         <f t="shared" si="4"/>
-        <v>2.7556159176000003E-2</v>
+        <v>0.12338677374710283</v>
       </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3">
         <f t="shared" si="5"/>
-        <v>2.7556159176000003E-2</v>
+        <v>0.12338677374710283</v>
       </c>
       <c r="V60" s="3">
         <f t="shared" si="0"/>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="S61" s="3">
         <f t="shared" si="4"/>
-        <v>7.7722500240000004E-3</v>
+        <v>3.4801397723541821E-2</v>
       </c>
       <c r="T61" s="3"/>
       <c r="U61" s="3">
         <f t="shared" si="5"/>
-        <v>7.7722500240000004E-3</v>
+        <v>3.4801397723541821E-2</v>
       </c>
       <c r="V61" s="3">
         <f t="shared" si="0"/>
@@ -5647,12 +5647,12 @@
       </c>
       <c r="S62" s="3">
         <f t="shared" si="4"/>
-        <v>2.5342917600000022E-4</v>
+        <v>1.1347665761511907E-3</v>
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3">
         <f t="shared" si="5"/>
-        <v>2.5342917600000022E-4</v>
+        <v>1.1347665761511907E-3</v>
       </c>
       <c r="V62" s="3">
         <f t="shared" si="0"/>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="S63" s="3">
         <f t="shared" si="4"/>
-        <v>7.1480024000000067E-5</v>
+        <v>3.2006236763238712E-4</v>
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="3">
         <f t="shared" si="5"/>
-        <v>7.1480024000000067E-5</v>
+        <v>3.2006236763238712E-4</v>
       </c>
       <c r="V63" s="3">
         <f t="shared" si="0"/>
@@ -5809,12 +5809,12 @@
       </c>
       <c r="S64" s="3">
         <f t="shared" si="4"/>
-        <v>8.797612824E-3</v>
+        <v>3.9392611143534158E-2</v>
       </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3">
         <f t="shared" si="5"/>
-        <v>8.797612824E-3</v>
+        <v>3.9392611143534158E-2</v>
       </c>
       <c r="V64" s="3">
         <f t="shared" si="0"/>
@@ -5890,12 +5890,12 @@
       </c>
       <c r="S65" s="3">
         <f t="shared" si="4"/>
-        <v>2.4813779759999999E-3</v>
+        <v>1.1110736476381429E-2</v>
       </c>
       <c r="T65" s="3"/>
       <c r="U65" s="3">
         <f t="shared" si="5"/>
-        <v>2.4813779759999999E-3</v>
+        <v>1.1110736476381429E-2</v>
       </c>
       <c r="V65" s="3">
         <f t="shared" si="0"/>
@@ -5971,12 +5971,12 @@
       </c>
       <c r="S66" s="3">
         <f t="shared" si="4"/>
-        <v>8.4842940000000159E-5</v>
+        <v>1.2309714356868785E-4</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3">
         <f t="shared" si="5"/>
-        <v>8.4842940000000159E-5</v>
+        <v>1.2309714356868785E-4</v>
       </c>
       <c r="V66" s="3">
         <f t="shared" ref="V66:V129" si="9">IF(B66=1,$AB$3,(1-$AB$3))</f>
@@ -6052,12 +6052,12 @@
       </c>
       <c r="S67" s="3">
         <f t="shared" ref="S67:S130" si="13">U67</f>
-        <v>2.3930060000000044E-5</v>
+        <v>3.4719707160399138E-5</v>
       </c>
       <c r="T67" s="3"/>
       <c r="U67" s="3">
         <f t="shared" ref="U67:U130" si="14">INDEX($AA$11:$AB$19,MATCH($A67,$AA$11:$AA$19,0),2)*V67*W67*X67*Y67</f>
-        <v>2.3930060000000044E-5</v>
+        <v>3.4719707160399138E-5</v>
       </c>
       <c r="V67" s="3">
         <f t="shared" si="9"/>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="S68" s="3">
         <f t="shared" si="13"/>
-        <v>2.9452620600000025E-3</v>
+        <v>4.2732294124558749E-3</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3">
         <f t="shared" si="14"/>
-        <v>2.9452620600000025E-3</v>
+        <v>4.2732294124558749E-3</v>
       </c>
       <c r="V68" s="3">
         <f t="shared" si="9"/>
@@ -6214,12 +6214,12 @@
       </c>
       <c r="S69" s="3">
         <f t="shared" si="13"/>
-        <v>8.3071494000000077E-4</v>
+        <v>1.2052698342824263E-3</v>
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="3">
         <f t="shared" si="14"/>
-        <v>8.3071494000000077E-4</v>
+        <v>1.2052698342824263E-3</v>
       </c>
       <c r="V69" s="3">
         <f t="shared" si="9"/>
@@ -6295,12 +6295,12 @@
       </c>
       <c r="S70" s="3">
         <f t="shared" si="13"/>
-        <v>2.7087060000000048E-5</v>
+        <v>3.9300143461243353E-5</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3">
         <f t="shared" si="14"/>
-        <v>2.7087060000000048E-5</v>
+        <v>3.9300143461243353E-5</v>
       </c>
       <c r="V70" s="3">
         <f t="shared" si="9"/>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="S71" s="3">
         <f t="shared" si="13"/>
-        <v>7.6399400000000141E-6</v>
+        <v>1.1084655848042998E-5</v>
       </c>
       <c r="T71" s="3"/>
       <c r="U71" s="3">
         <f t="shared" si="14"/>
-        <v>7.6399400000000141E-6</v>
+        <v>1.1084655848042998E-5</v>
       </c>
       <c r="V71" s="3">
         <f t="shared" si="9"/>
@@ -6457,12 +6457,12 @@
       </c>
       <c r="S72" s="3">
         <f t="shared" si="13"/>
-        <v>9.4030794000000083E-4</v>
+        <v>1.3642764087260181E-3</v>
       </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3">
         <f t="shared" si="14"/>
-        <v>9.4030794000000083E-4</v>
+        <v>1.3642764087260181E-3</v>
       </c>
       <c r="V72" s="3">
         <f t="shared" si="9"/>
@@ -6538,12 +6538,12 @@
       </c>
       <c r="S73" s="3">
         <f t="shared" si="13"/>
-        <v>2.6521506000000026E-4</v>
+        <v>3.8479591015349224E-4</v>
       </c>
       <c r="T73" s="3"/>
       <c r="U73" s="3">
         <f t="shared" si="14"/>
-        <v>2.6521506000000026E-4</v>
+        <v>3.8479591015349224E-4</v>
       </c>
       <c r="V73" s="3">
         <f t="shared" si="9"/>
@@ -6619,12 +6619,12 @@
       </c>
       <c r="S74" s="3">
         <f t="shared" si="13"/>
-        <v>1.9844970600000019E-3</v>
+        <v>2.8792722117651597E-3</v>
       </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3">
         <f t="shared" si="14"/>
-        <v>1.9844970600000019E-3</v>
+        <v>2.8792722117651597E-3</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" si="9"/>
@@ -6700,12 +6700,12 @@
       </c>
       <c r="S75" s="3">
         <f t="shared" si="13"/>
-        <v>5.5972994000000049E-4</v>
+        <v>8.121024187029937E-4</v>
       </c>
       <c r="T75" s="3"/>
       <c r="U75" s="3">
         <f t="shared" si="14"/>
-        <v>5.5972994000000049E-4</v>
+        <v>8.121024187029937E-4</v>
       </c>
       <c r="V75" s="3">
         <f t="shared" si="9"/>
@@ -6781,12 +6781,12 @@
       </c>
       <c r="S76" s="3">
         <f t="shared" si="13"/>
-        <v>6.889039794E-2</v>
+        <v>9.9951878208419026E-2</v>
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3">
         <f t="shared" si="14"/>
-        <v>6.889039794E-2</v>
+        <v>9.9951878208419026E-2</v>
       </c>
       <c r="V76" s="3">
         <f t="shared" si="9"/>
@@ -6862,12 +6862,12 @@
       </c>
       <c r="S77" s="3">
         <f t="shared" si="13"/>
-        <v>1.9430625060000001E-2</v>
+        <v>2.8191555392118185E-2</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="3">
         <f t="shared" si="14"/>
-        <v>1.9430625060000001E-2</v>
+        <v>2.8191555392118185E-2</v>
       </c>
       <c r="V77" s="3">
         <f t="shared" si="9"/>
@@ -6943,12 +6943,12 @@
       </c>
       <c r="S78" s="3">
         <f t="shared" si="13"/>
-        <v>6.3357294000000047E-4</v>
+        <v>9.192399409593254E-4</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3">
         <f t="shared" si="14"/>
-        <v>6.3357294000000047E-4</v>
+        <v>9.192399409593254E-4</v>
       </c>
       <c r="V78" s="3">
         <f t="shared" si="9"/>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="S79" s="3">
         <f t="shared" si="13"/>
-        <v>1.7870006000000015E-4</v>
+        <v>2.5927280386032255E-4</v>
       </c>
       <c r="T79" s="3"/>
       <c r="U79" s="3">
         <f t="shared" si="14"/>
-        <v>1.7870006000000015E-4</v>
+        <v>2.5927280386032255E-4</v>
       </c>
       <c r="V79" s="3">
         <f t="shared" si="9"/>
@@ -7105,12 +7105,12 @@
       </c>
       <c r="S80" s="3">
         <f t="shared" si="13"/>
-        <v>2.1994032059999998E-2</v>
+        <v>3.1910757950445116E-2</v>
       </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3">
         <f t="shared" si="14"/>
-        <v>2.1994032059999998E-2</v>
+        <v>3.1910757950445116E-2</v>
       </c>
       <c r="V80" s="3">
         <f t="shared" si="9"/>
@@ -7186,12 +7186,12 @@
       </c>
       <c r="S81" s="3">
         <f t="shared" si="13"/>
-        <v>6.2034449399999986E-3</v>
+        <v>9.0004701911511869E-3</v>
       </c>
       <c r="T81" s="3"/>
       <c r="U81" s="3">
         <f t="shared" si="14"/>
-        <v>6.2034449399999986E-3</v>
+        <v>9.0004701911511869E-3</v>
       </c>
       <c r="V81" s="3">
         <f t="shared" si="9"/>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="S82" s="3">
         <f t="shared" si="13"/>
-        <v>1.0181152800000017E-4</v>
+        <v>6.522748668073688E-5</v>
       </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3">
         <f t="shared" si="14"/>
-        <v>1.0181152800000017E-4</v>
+        <v>6.522748668073688E-5</v>
       </c>
       <c r="V82" s="3">
         <f t="shared" si="9"/>
@@ -7348,12 +7348,12 @@
       </c>
       <c r="S83" s="3">
         <f t="shared" si="13"/>
-        <v>2.8716072000000049E-5</v>
+        <v>1.8397496243284759E-5</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="3">
         <f t="shared" si="14"/>
-        <v>2.8716072000000049E-5</v>
+        <v>1.8397496243284759E-5</v>
       </c>
       <c r="V83" s="3">
         <f t="shared" si="9"/>
@@ -7429,12 +7429,12 @@
       </c>
       <c r="S84" s="3">
         <f t="shared" si="13"/>
-        <v>3.5343144720000031E-3</v>
+        <v>2.2643256090598639E-3</v>
       </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3">
         <f t="shared" si="14"/>
-        <v>3.5343144720000031E-3</v>
+        <v>2.2643256090598639E-3</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" si="9"/>
@@ -7510,12 +7510,12 @@
       </c>
       <c r="S85" s="3">
         <f t="shared" si="13"/>
-        <v>9.9685792800000071E-4</v>
+        <v>6.3865594101688466E-4</v>
       </c>
       <c r="T85" s="3"/>
       <c r="U85" s="3">
         <f t="shared" si="14"/>
-        <v>9.9685792800000071E-4</v>
+        <v>6.3865594101688466E-4</v>
       </c>
       <c r="V85" s="3">
         <f t="shared" si="9"/>
@@ -7591,12 +7591,12 @@
       </c>
       <c r="S86" s="3">
         <f t="shared" si="13"/>
-        <v>3.2504472000000058E-5</v>
+        <v>2.0824606565617842E-5</v>
       </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3">
         <f t="shared" si="14"/>
-        <v>3.2504472000000058E-5</v>
+        <v>2.0824606565617842E-5</v>
       </c>
       <c r="V86" s="3">
         <f t="shared" si="9"/>
@@ -7672,12 +7672,12 @@
       </c>
       <c r="S87" s="3">
         <f t="shared" si="13"/>
-        <v>9.1679280000000159E-6</v>
+        <v>5.8736069800460577E-6</v>
       </c>
       <c r="T87" s="3"/>
       <c r="U87" s="3">
         <f t="shared" si="14"/>
-        <v>9.1679280000000159E-6</v>
+        <v>5.8736069800460577E-6</v>
       </c>
       <c r="V87" s="3">
         <f t="shared" si="9"/>
@@ -7753,12 +7753,12 @@
       </c>
       <c r="S88" s="3">
         <f t="shared" si="13"/>
-        <v>1.1283695280000009E-3</v>
+        <v>7.2291134220644722E-4</v>
       </c>
       <c r="T88" s="3"/>
       <c r="U88" s="3">
         <f t="shared" si="14"/>
-        <v>1.1283695280000009E-3</v>
+        <v>7.2291134220644722E-4</v>
       </c>
       <c r="V88" s="3">
         <f t="shared" si="9"/>
@@ -7834,12 +7834,12 @@
       </c>
       <c r="S89" s="3">
         <f t="shared" si="13"/>
-        <v>3.1825807200000023E-4</v>
+        <v>2.0389807087874153E-4</v>
       </c>
       <c r="T89" s="3"/>
       <c r="U89" s="3">
         <f t="shared" si="14"/>
-        <v>3.1825807200000023E-4</v>
+        <v>2.0389807087874153E-4</v>
       </c>
       <c r="V89" s="3">
         <f t="shared" si="9"/>
@@ -7915,12 +7915,12 @@
       </c>
       <c r="S90" s="3">
         <f t="shared" si="13"/>
-        <v>2.3813964720000021E-3</v>
+        <v>1.5256868226055269E-3</v>
       </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3">
         <f t="shared" si="14"/>
-        <v>2.3813964720000021E-3</v>
+        <v>1.5256868226055269E-3</v>
       </c>
       <c r="V90" s="3">
         <f t="shared" si="9"/>
@@ -7996,12 +7996,12 @@
       </c>
       <c r="S91" s="3">
         <f t="shared" si="13"/>
-        <v>6.7167592800000046E-4</v>
+        <v>4.3032192432463577E-4</v>
       </c>
       <c r="T91" s="3"/>
       <c r="U91" s="3">
         <f t="shared" si="14"/>
-        <v>6.7167592800000046E-4</v>
+        <v>4.3032192432463577E-4</v>
       </c>
       <c r="V91" s="3">
         <f t="shared" si="9"/>
@@ -8077,12 +8077,12 @@
       </c>
       <c r="S92" s="3">
         <f t="shared" si="13"/>
-        <v>8.2668477527999995E-2</v>
+        <v>5.296312827044896E-2</v>
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3">
         <f t="shared" si="14"/>
-        <v>8.2668477527999995E-2</v>
+        <v>5.296312827044896E-2</v>
       </c>
       <c r="V92" s="3">
         <f t="shared" si="9"/>
@@ -8158,12 +8158,12 @@
       </c>
       <c r="S93" s="3">
         <f t="shared" si="13"/>
-        <v>2.3316750071999997E-2</v>
+        <v>1.4938318230126629E-2</v>
       </c>
       <c r="T93" s="3"/>
       <c r="U93" s="3">
         <f t="shared" si="14"/>
-        <v>2.3316750071999997E-2</v>
+        <v>1.4938318230126629E-2</v>
       </c>
       <c r="V93" s="3">
         <f t="shared" si="9"/>
@@ -8239,12 +8239,12 @@
       </c>
       <c r="S94" s="3">
         <f t="shared" si="13"/>
-        <v>7.6028752800000061E-4</v>
+        <v>4.87092626742134E-4</v>
       </c>
       <c r="T94" s="3"/>
       <c r="U94" s="3">
         <f t="shared" si="14"/>
-        <v>7.6028752800000061E-4</v>
+        <v>4.87092626742134E-4</v>
       </c>
       <c r="V94" s="3">
         <f t="shared" si="9"/>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="S95" s="3">
         <f t="shared" si="13"/>
-        <v>2.1444007200000016E-4</v>
+        <v>1.3738509985034548E-4</v>
       </c>
       <c r="T95" s="3"/>
       <c r="U95" s="3">
         <f t="shared" si="14"/>
-        <v>2.1444007200000016E-4</v>
+        <v>1.3738509985034548E-4</v>
       </c>
       <c r="V95" s="3">
         <f t="shared" si="9"/>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="S96" s="3">
         <f t="shared" si="13"/>
-        <v>2.6392838471999993E-2</v>
+        <v>1.6909072614048351E-2</v>
       </c>
       <c r="T96" s="3"/>
       <c r="U96" s="3">
         <f t="shared" si="14"/>
-        <v>2.6392838471999993E-2</v>
+        <v>1.6909072614048351E-2</v>
       </c>
       <c r="V96" s="3">
         <f t="shared" si="9"/>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="S97" s="3">
         <f t="shared" si="13"/>
-        <v>7.4441339279999984E-3</v>
+        <v>4.7692256090905603E-3</v>
       </c>
       <c r="T97" s="3"/>
       <c r="U97" s="3">
         <f t="shared" si="14"/>
-        <v>7.4441339279999984E-3</v>
+        <v>4.7692256090905603E-3</v>
       </c>
       <c r="V97" s="3">
         <f t="shared" si="9"/>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="S98" s="3">
         <f t="shared" si="13"/>
-        <v>1.5271729200000029E-4</v>
+        <v>3.0131289704528064E-5</v>
       </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3">
         <f t="shared" si="14"/>
-        <v>1.5271729200000029E-4</v>
+        <v>3.0131289704528064E-5</v>
       </c>
       <c r="V98" s="3">
         <f t="shared" si="9"/>
@@ -8644,12 +8644,12 @@
       </c>
       <c r="S99" s="3">
         <f t="shared" si="13"/>
-        <v>4.3074108000000078E-5</v>
+        <v>8.4985688910207347E-6</v>
       </c>
       <c r="T99" s="3"/>
       <c r="U99" s="3">
         <f t="shared" si="14"/>
-        <v>4.3074108000000078E-5</v>
+        <v>8.4985688910207347E-6</v>
       </c>
       <c r="V99" s="3">
         <f t="shared" si="9"/>
@@ -8725,12 +8725,12 @@
       </c>
       <c r="S100" s="3">
         <f t="shared" si="13"/>
-        <v>5.3014717080000062E-3</v>
+        <v>1.045986199742902E-3</v>
       </c>
       <c r="T100" s="3"/>
       <c r="U100" s="3">
         <f t="shared" si="14"/>
-        <v>5.3014717080000062E-3</v>
+        <v>1.045986199742902E-3</v>
       </c>
       <c r="V100" s="3">
         <f t="shared" si="9"/>
@@ -8806,12 +8806,12 @@
       </c>
       <c r="S101" s="3">
         <f t="shared" si="13"/>
-        <v>1.4952868920000016E-3</v>
+        <v>2.9502174864543386E-4</v>
       </c>
       <c r="T101" s="3"/>
       <c r="U101" s="3">
         <f t="shared" si="14"/>
-        <v>1.4952868920000016E-3</v>
+        <v>2.9502174864543386E-4</v>
       </c>
       <c r="V101" s="3">
         <f t="shared" si="9"/>
@@ -8887,12 +8887,12 @@
       </c>
       <c r="S102" s="3">
         <f t="shared" si="13"/>
-        <v>4.875670800000009E-5</v>
+        <v>9.6197521220261102E-6</v>
       </c>
       <c r="T102" s="3"/>
       <c r="U102" s="3">
         <f t="shared" si="14"/>
-        <v>4.875670800000009E-5</v>
+        <v>9.6197521220261102E-6</v>
       </c>
       <c r="V102" s="3">
         <f t="shared" si="9"/>
@@ -8968,12 +8968,12 @@
       </c>
       <c r="S103" s="3">
         <f t="shared" si="13"/>
-        <v>1.3751892000000025E-5</v>
+        <v>2.7132634190330054E-6</v>
       </c>
       <c r="T103" s="3"/>
       <c r="U103" s="3">
         <f t="shared" si="14"/>
-        <v>1.3751892000000025E-5</v>
+        <v>2.7132634190330054E-6</v>
       </c>
       <c r="V103" s="3">
         <f t="shared" si="9"/>
@@ -9049,12 +9049,12 @@
       </c>
       <c r="S104" s="3">
         <f t="shared" si="13"/>
-        <v>1.6925542920000018E-3</v>
+        <v>3.3394282366462034E-4</v>
       </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3">
         <f t="shared" si="14"/>
-        <v>1.6925542920000018E-3</v>
+        <v>3.3394282366462034E-4</v>
       </c>
       <c r="V104" s="3">
         <f t="shared" si="9"/>
@@ -9130,12 +9130,12 @@
       </c>
       <c r="S105" s="3">
         <f t="shared" si="13"/>
-        <v>4.7738710800000051E-4</v>
+        <v>9.4189001546431374E-5</v>
       </c>
       <c r="T105" s="3"/>
       <c r="U105" s="3">
         <f t="shared" si="14"/>
-        <v>4.7738710800000051E-4</v>
+        <v>9.4189001546431374E-5</v>
       </c>
       <c r="V105" s="3">
         <f t="shared" si="9"/>
@@ -9211,12 +9211,12 @@
       </c>
       <c r="S106" s="3">
         <f t="shared" si="13"/>
-        <v>3.5720947080000029E-3</v>
+        <v>7.0477821528396067E-4</v>
       </c>
       <c r="T106" s="3"/>
       <c r="U106" s="3">
         <f t="shared" si="14"/>
-        <v>3.5720947080000029E-3</v>
+        <v>7.0477821528396067E-4</v>
       </c>
       <c r="V106" s="3">
         <f t="shared" si="9"/>
@@ -9292,12 +9292,12 @@
       </c>
       <c r="S107" s="3">
         <f t="shared" si="13"/>
-        <v>1.0075138920000008E-3</v>
+        <v>1.9878359918265557E-4</v>
       </c>
       <c r="T107" s="3"/>
       <c r="U107" s="3">
         <f t="shared" si="14"/>
-        <v>1.0075138920000008E-3</v>
+        <v>1.9878359918265557E-4</v>
       </c>
       <c r="V107" s="3">
         <f t="shared" si="9"/>
@@ -9373,12 +9373,12 @@
       </c>
       <c r="S108" s="3">
         <f t="shared" si="13"/>
-        <v>0.12400271629199999</v>
+        <v>2.4465872330571757E-2</v>
       </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3">
         <f t="shared" si="14"/>
-        <v>0.12400271629199999</v>
+        <v>2.4465872330571757E-2</v>
       </c>
       <c r="V108" s="3">
         <f t="shared" si="9"/>
@@ -9454,12 +9454,12 @@
       </c>
       <c r="S109" s="3">
         <f t="shared" si="13"/>
-        <v>3.4975125108000001E-2</v>
+        <v>6.9006306573407518E-3</v>
       </c>
       <c r="T109" s="3"/>
       <c r="U109" s="3">
         <f t="shared" si="14"/>
-        <v>3.4975125108000001E-2</v>
+        <v>6.9006306573407518E-3</v>
       </c>
       <c r="V109" s="3">
         <f t="shared" si="9"/>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="S110" s="3">
         <f t="shared" si="13"/>
-        <v>1.1404312920000009E-3</v>
+        <v>2.2500834841519593E-4</v>
       </c>
       <c r="T110" s="3"/>
       <c r="U110" s="3">
         <f t="shared" si="14"/>
-        <v>1.1404312920000009E-3</v>
+        <v>2.2500834841519593E-4</v>
       </c>
       <c r="V110" s="3">
         <f t="shared" si="9"/>
@@ -9616,12 +9616,12 @@
       </c>
       <c r="S111" s="3">
         <f t="shared" si="13"/>
-        <v>3.2166010800000025E-4</v>
+        <v>6.3463893142747571E-5</v>
       </c>
       <c r="T111" s="3"/>
       <c r="U111" s="3">
         <f t="shared" si="14"/>
-        <v>3.2166010800000025E-4</v>
+        <v>6.3463893142747571E-5</v>
       </c>
       <c r="V111" s="3">
         <f t="shared" si="9"/>
@@ -9697,12 +9697,12 @@
       </c>
       <c r="S112" s="3">
         <f t="shared" si="13"/>
-        <v>3.9589257707999995E-2</v>
+        <v>7.8110040949846511E-3</v>
       </c>
       <c r="T112" s="3"/>
       <c r="U112" s="3">
         <f t="shared" si="14"/>
-        <v>3.9589257707999995E-2</v>
+        <v>7.8110040949846511E-3</v>
       </c>
       <c r="V112" s="3">
         <f t="shared" si="9"/>
@@ -9778,12 +9778,12 @@
       </c>
       <c r="S113" s="3">
         <f t="shared" si="13"/>
-        <v>1.1166200891999998E-2</v>
+        <v>2.203103719098235E-3</v>
       </c>
       <c r="T113" s="3"/>
       <c r="U113" s="3">
         <f t="shared" si="14"/>
-        <v>1.1166200891999998E-2</v>
+        <v>2.203103719098235E-3</v>
       </c>
       <c r="V113" s="3">
         <f t="shared" si="9"/>
@@ -9859,12 +9859,12 @@
       </c>
       <c r="S114" s="3">
         <f t="shared" si="13"/>
-        <v>1.5271729200000029E-4</v>
+        <v>1.6376054804297806E-5</v>
       </c>
       <c r="T114" s="3"/>
       <c r="U114" s="3">
         <f t="shared" si="14"/>
-        <v>1.5271729200000029E-4</v>
+        <v>1.6376054804297806E-5</v>
       </c>
       <c r="V114" s="3">
         <f t="shared" si="9"/>
@@ -9940,12 +9940,12 @@
       </c>
       <c r="S115" s="3">
         <f t="shared" si="13"/>
-        <v>4.3074108000000078E-5</v>
+        <v>4.6188872524942529E-6</v>
       </c>
       <c r="T115" s="3"/>
       <c r="U115" s="3">
         <f t="shared" si="14"/>
-        <v>4.3074108000000078E-5</v>
+        <v>4.6188872524942529E-6</v>
       </c>
       <c r="V115" s="3">
         <f t="shared" si="9"/>
@@ -10021,12 +10021,12 @@
       </c>
       <c r="S116" s="3">
         <f t="shared" si="13"/>
-        <v>5.3014717080000062E-3</v>
+        <v>5.6848304534919472E-4</v>
       </c>
       <c r="T116" s="3"/>
       <c r="U116" s="3">
         <f t="shared" si="14"/>
-        <v>5.3014717080000062E-3</v>
+        <v>5.6848304534919472E-4</v>
       </c>
       <c r="V116" s="3">
         <f t="shared" si="9"/>
@@ -10102,12 +10102,12 @@
       </c>
       <c r="S117" s="3">
         <f t="shared" si="13"/>
-        <v>1.4952868920000016E-3</v>
+        <v>1.6034137176515747E-4</v>
       </c>
       <c r="T117" s="3"/>
       <c r="U117" s="3">
         <f t="shared" si="14"/>
-        <v>1.4952868920000016E-3</v>
+        <v>1.6034137176515747E-4</v>
       </c>
       <c r="V117" s="3">
         <f t="shared" si="9"/>
@@ -10183,12 +10183,12 @@
       </c>
       <c r="S118" s="3">
         <f t="shared" si="13"/>
-        <v>4.875670800000009E-5</v>
+        <v>5.2282391327705385E-6</v>
       </c>
       <c r="T118" s="3"/>
       <c r="U118" s="3">
         <f t="shared" si="14"/>
-        <v>4.875670800000009E-5</v>
+        <v>5.2282391327705385E-6</v>
       </c>
       <c r="V118" s="3">
         <f t="shared" si="9"/>
@@ -10264,12 +10264,12 @@
       </c>
       <c r="S119" s="3">
         <f t="shared" si="13"/>
-        <v>1.3751892000000025E-5</v>
+        <v>1.4746315502686133E-6</v>
       </c>
       <c r="T119" s="3"/>
       <c r="U119" s="3">
         <f t="shared" si="14"/>
-        <v>1.3751892000000025E-5</v>
+        <v>1.4746315502686133E-6</v>
       </c>
       <c r="V119" s="3">
         <f t="shared" si="9"/>
@@ -10345,12 +10345,12 @@
       </c>
       <c r="S120" s="3">
         <f t="shared" si="13"/>
-        <v>1.6925542920000018E-3</v>
+        <v>1.8149458703760568E-4</v>
       </c>
       <c r="T120" s="3"/>
       <c r="U120" s="3">
         <f t="shared" si="14"/>
-        <v>1.6925542920000018E-3</v>
+        <v>1.8149458703760568E-4</v>
       </c>
       <c r="V120" s="3">
         <f t="shared" si="9"/>
@@ -10426,12 +10426,12 @@
       </c>
       <c r="S121" s="3">
         <f t="shared" si="13"/>
-        <v>4.7738710800000051E-4</v>
+        <v>5.1190780959324677E-5</v>
       </c>
       <c r="T121" s="3"/>
       <c r="U121" s="3">
         <f t="shared" si="14"/>
-        <v>4.7738710800000051E-4</v>
+        <v>5.1190780959324677E-5</v>
       </c>
       <c r="V121" s="3">
         <f t="shared" si="9"/>
@@ -10507,12 +10507,12 @@
       </c>
       <c r="S122" s="3">
         <f t="shared" si="13"/>
-        <v>3.5720947080000029E-3</v>
+        <v>3.8303991603223358E-4</v>
       </c>
       <c r="T122" s="3"/>
       <c r="U122" s="3">
         <f t="shared" si="14"/>
-        <v>3.5720947080000029E-3</v>
+        <v>3.8303991603223358E-4</v>
       </c>
       <c r="V122" s="3">
         <f t="shared" si="9"/>
@@ -10588,12 +10588,12 @@
       </c>
       <c r="S123" s="3">
         <f t="shared" si="13"/>
-        <v>1.0075138920000008E-3</v>
+        <v>1.080368993937069E-4</v>
       </c>
       <c r="T123" s="3"/>
       <c r="U123" s="3">
         <f t="shared" si="14"/>
-        <v>1.0075138920000008E-3</v>
+        <v>1.080368993937069E-4</v>
       </c>
       <c r="V123" s="3">
         <f t="shared" si="9"/>
@@ -10669,12 +10669,12 @@
       </c>
       <c r="S124" s="3">
         <f t="shared" si="13"/>
-        <v>0.12400271629199999</v>
+        <v>1.3296957085118952E-2</v>
       </c>
       <c r="T124" s="3"/>
       <c r="U124" s="3">
         <f t="shared" si="14"/>
-        <v>0.12400271629199999</v>
+        <v>1.3296957085118952E-2</v>
       </c>
       <c r="V124" s="3">
         <f t="shared" si="9"/>
@@ -10750,12 +10750,12 @@
       </c>
       <c r="S125" s="3">
         <f t="shared" si="13"/>
-        <v>3.4975125108000001E-2</v>
+        <v>3.7504237932386789E-3</v>
       </c>
       <c r="T125" s="3"/>
       <c r="U125" s="3">
         <f t="shared" si="14"/>
-        <v>3.4975125108000001E-2</v>
+        <v>3.7504237932386789E-3</v>
       </c>
       <c r="V125" s="3">
         <f t="shared" si="9"/>
@@ -10831,12 +10831,12 @@
       </c>
       <c r="S126" s="3">
         <f t="shared" si="13"/>
-        <v>1.1404312920000009E-3</v>
+        <v>1.2228978849577907E-4</v>
       </c>
       <c r="T126" s="3"/>
       <c r="U126" s="3">
         <f t="shared" si="14"/>
-        <v>1.1404312920000009E-3</v>
+        <v>1.2228978849577907E-4</v>
       </c>
       <c r="V126" s="3">
         <f t="shared" si="9"/>
@@ -10912,12 +10912,12 @@
       </c>
       <c r="S127" s="3">
         <f t="shared" si="13"/>
-        <v>3.2166010800000025E-4</v>
+        <v>3.4491991627014604E-5</v>
       </c>
       <c r="T127" s="3"/>
       <c r="U127" s="3">
         <f t="shared" si="14"/>
-        <v>3.2166010800000025E-4</v>
+        <v>3.4491991627014604E-5</v>
       </c>
       <c r="V127" s="3">
         <f t="shared" si="9"/>
@@ -10993,12 +10993,12 @@
       </c>
       <c r="S128" s="3">
         <f t="shared" si="13"/>
-        <v>3.9589257707999995E-2</v>
+        <v>4.2452026577820406E-3</v>
       </c>
       <c r="T128" s="3"/>
       <c r="U128" s="3">
         <f t="shared" si="14"/>
-        <v>3.9589257707999995E-2</v>
+        <v>4.2452026577820406E-3</v>
       </c>
       <c r="V128" s="3">
         <f t="shared" si="9"/>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="S129" s="3">
         <f t="shared" si="13"/>
-        <v>1.1166200891999998E-2</v>
+        <v>1.1973648521949347E-3</v>
       </c>
       <c r="T129" s="3"/>
       <c r="U129" s="3">
         <f t="shared" si="14"/>
-        <v>1.1166200891999998E-2</v>
+        <v>1.1973648521949347E-3</v>
       </c>
       <c r="V129" s="3">
         <f t="shared" si="9"/>
@@ -11155,27 +11155,27 @@
       </c>
       <c r="S130" s="3">
         <f t="shared" si="13"/>
-        <v>1.0181152800000017E-4</v>
+        <v>7.0241229105909576E-6</v>
       </c>
       <c r="T130" s="3"/>
       <c r="U130" s="3">
         <f t="shared" si="14"/>
-        <v>1.0181152800000017E-4</v>
+        <v>7.0241229105909576E-6</v>
       </c>
       <c r="V130" s="3">
-        <f t="shared" ref="V130:V145" si="15">IF(B130=1,$AB$3,(1-$AB$3))</f>
+        <f t="shared" ref="V130:V144" si="15">IF(B130=1,$AB$3,(1-$AB$3))</f>
         <v>4.1000000000000036E-2</v>
       </c>
       <c r="W130" s="3">
-        <f t="shared" ref="W130:W145" si="16">IF(C130=1,$AB$2,(1-$AB$2))</f>
+        <f t="shared" ref="W130:W144" si="16">IF(C130=1,$AB$2,(1-$AB$2))</f>
         <v>0.75800000000000001</v>
       </c>
       <c r="X130" s="3">
-        <f t="shared" ref="X130:X145" si="17">IF(D130=1,$AC$3,(1-$AC$3))</f>
+        <f t="shared" ref="X130:X144" si="17">IF(D130=1,$AC$3,(1-$AC$3))</f>
         <v>2.8000000000000025E-2</v>
       </c>
       <c r="Y130" s="3">
-        <f t="shared" ref="Y130:Y145" si="18">IF(E130=1,$AC$2,(1-$AC$2))</f>
+        <f t="shared" ref="Y130:Y144" si="18">IF(E130=1,$AC$2,(1-$AC$2))</f>
         <v>0.78</v>
       </c>
     </row>
@@ -11236,12 +11236,12 @@
       </c>
       <c r="S131" s="3">
         <f t="shared" ref="S131:S145" si="19">U131</f>
-        <v>2.8716072000000049E-5</v>
+        <v>1.9811628722179621E-6</v>
       </c>
       <c r="T131" s="3"/>
       <c r="U131" s="3">
         <f t="shared" ref="U131:U145" si="20">INDEX($AA$11:$AB$19,MATCH($A131,$AA$11:$AA$19,0),2)*V131*W131*X131*Y131</f>
-        <v>2.8716072000000049E-5</v>
+        <v>1.9811628722179621E-6</v>
       </c>
       <c r="V131" s="3">
         <f t="shared" si="15"/>
@@ -11317,12 +11317,12 @@
       </c>
       <c r="S132" s="3">
         <f t="shared" si="19"/>
-        <v>3.5343144720000031E-3</v>
+        <v>2.4383740961051446E-4</v>
       </c>
       <c r="T132" s="3"/>
       <c r="U132" s="3">
         <f t="shared" si="20"/>
-        <v>3.5343144720000031E-3</v>
+        <v>2.4383740961051446E-4</v>
       </c>
       <c r="V132" s="3">
         <f t="shared" si="15"/>
@@ -11398,12 +11398,12 @@
       </c>
       <c r="S133" s="3">
         <f t="shared" si="19"/>
-        <v>9.9685792800000071E-4</v>
+        <v>6.8774653992709206E-5</v>
       </c>
       <c r="T133" s="3"/>
       <c r="U133" s="3">
         <f t="shared" si="20"/>
-        <v>9.9685792800000071E-4</v>
+        <v>6.8774653992709206E-5</v>
       </c>
       <c r="V133" s="3">
         <f t="shared" si="15"/>
@@ -11479,12 +11479,12 @@
       </c>
       <c r="S134" s="3">
         <f t="shared" si="19"/>
-        <v>3.2504472000000058E-5</v>
+        <v>2.2425300057559524E-6</v>
       </c>
       <c r="T134" s="3"/>
       <c r="U134" s="3">
         <f t="shared" si="20"/>
-        <v>3.2504472000000058E-5</v>
+        <v>2.2425300057559524E-6</v>
       </c>
       <c r="V134" s="3">
         <f t="shared" si="15"/>
@@ -11560,12 +11560,12 @@
       </c>
       <c r="S135" s="3">
         <f t="shared" si="19"/>
-        <v>9.1679280000000159E-6</v>
+        <v>6.325084631619352E-7</v>
       </c>
       <c r="T135" s="3"/>
       <c r="U135" s="3">
         <f t="shared" si="20"/>
-        <v>9.1679280000000159E-6</v>
+        <v>6.325084631619352E-7</v>
       </c>
       <c r="V135" s="3">
         <f t="shared" si="15"/>
@@ -11641,12 +11641,12 @@
       </c>
       <c r="S136" s="3">
         <f t="shared" si="19"/>
-        <v>1.1283695280000009E-3</v>
+        <v>7.7847827342670842E-5</v>
       </c>
       <c r="T136" s="3"/>
       <c r="U136" s="3">
         <f t="shared" si="20"/>
-        <v>1.1283695280000009E-3</v>
+        <v>7.7847827342670842E-5</v>
       </c>
       <c r="V136" s="3">
         <f t="shared" si="15"/>
@@ -11722,12 +11722,12 @@
       </c>
       <c r="S137" s="3">
         <f t="shared" si="19"/>
-        <v>3.1825807200000023E-4</v>
+        <v>2.1957079506907158E-5</v>
       </c>
       <c r="T137" s="3"/>
       <c r="U137" s="3">
         <f t="shared" si="20"/>
-        <v>3.1825807200000023E-4</v>
+        <v>2.1957079506907158E-5</v>
       </c>
       <c r="V137" s="3">
         <f t="shared" si="15"/>
@@ -11803,12 +11803,12 @@
       </c>
       <c r="S138" s="3">
         <f t="shared" si="19"/>
-        <v>2.3813964720000021E-3</v>
+        <v>1.6429594807943225E-4</v>
       </c>
       <c r="T138" s="3"/>
       <c r="U138" s="3">
         <f t="shared" si="20"/>
-        <v>2.3813964720000021E-3</v>
+        <v>1.6429594807943225E-4</v>
       </c>
       <c r="V138" s="3">
         <f t="shared" si="15"/>
@@ -11884,12 +11884,12 @@
       </c>
       <c r="S139" s="3">
         <f t="shared" si="19"/>
-        <v>6.7167592800000046E-4</v>
+        <v>4.6339882791634733E-5</v>
       </c>
       <c r="T139" s="3"/>
       <c r="U139" s="3">
         <f t="shared" si="20"/>
-        <v>6.7167592800000046E-4</v>
+        <v>4.6339882791634733E-5</v>
       </c>
       <c r="V139" s="3">
         <f t="shared" si="15"/>
@@ -11965,12 +11965,12 @@
       </c>
       <c r="S140" s="3">
         <f t="shared" si="19"/>
-        <v>8.2668477527999995E-2</v>
+        <v>5.7034164833288563E-3</v>
       </c>
       <c r="T140" s="3"/>
       <c r="U140" s="3">
         <f t="shared" si="20"/>
-        <v>8.2668477527999995E-2</v>
+        <v>5.7034164833288563E-3</v>
       </c>
       <c r="V140" s="3">
         <f t="shared" si="15"/>
@@ -12046,12 +12046,12 @@
       </c>
       <c r="S141" s="3">
         <f t="shared" si="19"/>
-        <v>2.3316750071999997E-2</v>
+        <v>1.6086559311953184E-3</v>
       </c>
       <c r="T141" s="3"/>
       <c r="U141" s="3">
         <f t="shared" si="20"/>
-        <v>2.3316750071999997E-2</v>
+        <v>1.6086559311953184E-3</v>
       </c>
       <c r="V141" s="3">
         <f t="shared" si="15"/>
@@ -12127,12 +12127,12 @@
       </c>
       <c r="S142" s="3">
         <f t="shared" si="19"/>
-        <v>7.6028752800000061E-4</v>
+        <v>5.2453323793169659E-5</v>
       </c>
       <c r="T142" s="3"/>
       <c r="U142" s="3">
         <f t="shared" si="20"/>
-        <v>7.6028752800000061E-4</v>
+        <v>5.2453323793169659E-5</v>
       </c>
       <c r="V142" s="3">
         <f t="shared" si="15"/>
@@ -12208,12 +12208,12 @@
       </c>
       <c r="S143" s="3">
         <f t="shared" si="19"/>
-        <v>2.1444007200000016E-4</v>
+        <v>1.4794527223714518E-5</v>
       </c>
       <c r="T143" s="3"/>
       <c r="U143" s="3">
         <f t="shared" si="20"/>
-        <v>2.1444007200000016E-4</v>
+        <v>1.4794527223714518E-5</v>
       </c>
       <c r="V143" s="3">
         <f t="shared" si="15"/>
@@ -12289,12 +12289,12 @@
       </c>
       <c r="S144" s="3">
         <f t="shared" si="19"/>
-        <v>2.6392838471999993E-2</v>
+        <v>1.8208796688200307E-3</v>
       </c>
       <c r="T144" s="3"/>
       <c r="U144" s="3">
         <f t="shared" si="20"/>
-        <v>2.6392838471999993E-2</v>
+        <v>1.8208796688200307E-3</v>
       </c>
       <c r="V144" s="3">
         <f t="shared" si="15"/>
@@ -12370,12 +12370,12 @@
       </c>
       <c r="S145" s="3">
         <f t="shared" si="19"/>
-        <v>7.4441339279999984E-3</v>
+        <v>5.135814450518035E-4</v>
       </c>
       <c r="T145" s="3"/>
       <c r="U145" s="3">
         <f t="shared" si="20"/>
-        <v>7.4441339279999984E-3</v>
+        <v>5.135814450518035E-4</v>
       </c>
       <c r="V145" s="3">
         <f>IF(B145=1,$AB$3,(1-$AB$3))</f>

--- a/Main/SASdata/Thomas/couple_formue.xlsx
+++ b/Main/SASdata/Thomas/couple_formue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\Thomas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Ny\SASdata\Thomas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3303D58-991D-4FA9-B0E9-8A530AA57083}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB256414-EE22-4F22-8B22-663A297A10E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:AC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,10 @@
         <f>U2</f>
         <v>5.5688353365310929E-5</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3">
+        <f>SUMIFS(S2:S145,B2:B145,0)</f>
+        <v>4.1000000000000036E-2</v>
+      </c>
       <c r="U2" s="3">
         <f>INDEX($AA$11:$AB$19,MATCH($A2,$AA$11:$AA$19,0),2)*V2*W2*X2*Y2</f>
         <v>5.5688353365310929E-5</v>
@@ -718,7 +721,10 @@
         <f t="shared" ref="S3:S66" si="4">U3</f>
         <v>1.5706971462010775E-5</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="3">
+        <f>SUMIFS(S2:S145,D2:D145,0)</f>
+        <v>2.8000000000000032E-2</v>
+      </c>
       <c r="U3" s="3">
         <f t="shared" ref="U3:U66" si="5">INDEX($AA$11:$AB$19,MATCH($A3,$AA$11:$AA$19,0),2)*V3*W3*X3*Y3</f>
         <v>1.5706971462010775E-5</v>
@@ -808,7 +814,10 @@
         <f t="shared" si="4"/>
         <v>1.9331814096815059E-3</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3">
+        <f>1-T2</f>
+        <v>0.95899999999999996</v>
+      </c>
       <c r="U4" s="3">
         <f t="shared" si="5"/>
         <v>1.9331814096815059E-3</v>
@@ -895,7 +904,10 @@
         <f t="shared" si="4"/>
         <v>5.4525629503837344E-4</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3">
+        <f>1-T3</f>
+        <v>0.97199999999999998</v>
+      </c>
       <c r="U5" s="3">
         <f t="shared" si="5"/>
         <v>5.4525629503837344E-4</v>
